--- a/Materials for manuscript Individual differences in frontoparietal plasticity in humans/data_dictionary.xlsx
+++ b/Materials for manuscript Individual differences in frontoparietal plasticity in humans/data_dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinboroshok/Downloads/Materials for manuscript Individual differences in frontoparietal plasticity in humans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mackeylab-adm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F090214C-DE6F-4848-BADC-A10A25F77237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F935F522-7DE1-9E44-B8BE-CDB259F04852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="500" windowWidth="21600" windowHeight="15800" xr2:uid="{1D8C2103-865D-4043-A955-DD684A0DE7E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="526">
   <si>
     <t>training_totaltrials</t>
   </si>
@@ -1588,6 +1588,30 @@
   </si>
   <si>
     <t>out-of-scanner nback task post-training: response time in seconds averaged across 2,3,4 back conditions</t>
+  </si>
+  <si>
+    <t>V1_A_myelin</t>
+  </si>
+  <si>
+    <t>premotor_A_myelin</t>
+  </si>
+  <si>
+    <t>premotor_B_myelin</t>
+  </si>
+  <si>
+    <t>V1_B_myelin</t>
+  </si>
+  <si>
+    <t>precentral gyrus from Harvard-Oxford probabilistic cortical strucutral atlas T1/T2 intensity ratio during scan B, calibrated using csf/skull</t>
+  </si>
+  <si>
+    <t>precentral gyrus from Harvard-Oxford probabilistic cortical strucutral atlas T1/T2 intensity ratio during scan A, calibrated using csf/skull</t>
+  </si>
+  <si>
+    <t>pericalcarine gyrus from Harvard-Oxford probabilistic cortical strucutral atlas T1/T2 intensity ratio during scan A, calibrated using csf/skull</t>
+  </si>
+  <si>
+    <t>pericalcarine gyrus from Harvard-Oxford probabilistic cortical strucutral atlas T1/T2 intensity ratio during scan B, calibrated using csf/skull</t>
   </si>
 </sst>
 </file>
@@ -1942,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C490ADD7-9457-DE4B-88DD-0FC458A14F3D}">
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:B263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3526,505 +3550,537 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>209</v>
+        <v>519</v>
       </c>
       <c r="B197" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>210</v>
+        <v>520</v>
       </c>
       <c r="B198" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>47</v>
+        <v>518</v>
       </c>
       <c r="B199" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>58</v>
+        <v>521</v>
       </c>
       <c r="B200" t="s">
-        <v>391</v>
+        <v>525</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>392</v>
+        <v>479</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="B202" t="s">
-        <v>393</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B203" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B204" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B205" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B206" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B207" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B208" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B209" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B210" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B211" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B212" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B213" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B214" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B215" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B216" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B217" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B218" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B219" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B220" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B221" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B222" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B223" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B224" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B225" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B226" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B227" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B228" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B229" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B230" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B231" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B232" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B233" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B234" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B235" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B236" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B237" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B238" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B239" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B240" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B241" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B242" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B243" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B244" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B245" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B246" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B247" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B248" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B249" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B250" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B251" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B252" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B253" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B254" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B255" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B256" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B257" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B258" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>113</v>
+      </c>
+      <c r="B259" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>114</v>
+      </c>
+      <c r="B260" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>115</v>
+      </c>
+      <c r="B261" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>116</v>
+      </c>
+      <c r="B262" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>117</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B263" t="s">
         <v>455</v>
       </c>
     </row>
